--- a/RunManager.xlsx
+++ b/RunManager.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Execute</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>slotbooking</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>gutrhf</t>
+  </si>
+  <si>
+    <t>sample</t>
   </si>
 </sst>
 </file>
@@ -187,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -200,6 +209,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,7 +511,7 @@
   <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -644,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -694,7 +706,24 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" s="2"/>
